--- a/base/x消息.xlsx
+++ b/base/x消息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20364" windowHeight="8327"/>
+    <workbookView windowWidth="22343" windowHeight="9107"/>
   </bookViews>
   <sheets>
     <sheet name="消息_CodeCfg" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>未进行实名验证，无法操作</t>
+  </si>
+  <si>
+    <t>签到时间未到，无法领取</t>
   </si>
 </sst>
 </file>
@@ -153,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -167,6 +170,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -174,9 +193,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,15 +270,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,105 +286,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,25 +335,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,157 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,17 +529,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +592,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,39 +626,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,10 +1134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1483,6 +1486,14 @@
         <v>43</v>
       </c>
     </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1210</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/base/x消息.xlsx
+++ b/base/x消息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22343" windowHeight="9107"/>
+    <workbookView windowWidth="11411" windowHeight="8507"/>
   </bookViews>
   <sheets>
     <sheet name="消息_CodeCfg" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -76,16 +76,16 @@
     <t>角色不存在</t>
   </si>
   <si>
-    <t>邮件不存在</t>
-  </si>
-  <si>
-    <t>邮件无附件</t>
-  </si>
-  <si>
-    <t>附件已领取</t>
-  </si>
-  <si>
-    <t>有附件删除失败</t>
+    <t>可领取的金币不足</t>
+  </si>
+  <si>
+    <t>该鱼不能通过U购买</t>
+  </si>
+  <si>
+    <t>用U购买该鱼已达上限</t>
+  </si>
+  <si>
+    <t>海豚的领养名额不足</t>
   </si>
   <si>
     <t>找不到角色</t>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>签到时间未到，无法领取</t>
+  </si>
+  <si>
+    <t>提现团队人数不足</t>
+  </si>
+  <si>
+    <t>团队有效人数比例不足</t>
   </si>
 </sst>
 </file>
@@ -156,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -170,6 +176,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -186,37 +228,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,37 +276,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -278,14 +292,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -335,55 +341,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,6 +485,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,108 +522,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,24 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,8 +583,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,37 +652,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,94 +691,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,15 +1140,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="29.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="73.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1492,6 +1498,22 @@
       </c>
       <c r="B41" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1212</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/base/x消息.xlsx
+++ b/base/x消息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="11411" windowHeight="8507"/>
+    <workbookView windowWidth="12330" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="消息_CodeCfg" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>数字输入有误</t>
   </si>
   <si>
-    <t>物品不足</t>
+    <t>货币不足</t>
   </si>
   <si>
     <t>密码错误</t>
@@ -97,10 +97,10 @@
     <t>角色名重复</t>
   </si>
   <si>
-    <t>不能使用非法字符</t>
-  </si>
-  <si>
-    <t>不能使用敏感字符</t>
+    <t>密码不能为空</t>
+  </si>
+  <si>
+    <t>前后密码不一致</t>
   </si>
   <si>
     <t>手机号码不正确</t>
@@ -112,13 +112,13 @@
     <t>邀请码不存在</t>
   </si>
   <si>
-    <t>手机号码已经被注册</t>
+    <t>该手机号码已经被注册</t>
   </si>
   <si>
     <t>你的账号已经激活，无需再激活</t>
   </si>
   <si>
-    <t>玩家未激活，无法操作</t>
+    <t>游戏未激活，不能实名验证</t>
   </si>
   <si>
     <t>已经是最大的鱼了,无法合成下一等级</t>
@@ -127,7 +127,7 @@
     <t>不能给自己赠送激活秘钥</t>
   </si>
   <si>
-    <t>输入的手不能给自己赠送激活秘钥机号码有误</t>
+    <t>输入的手机号码有误</t>
   </si>
   <si>
     <t>输入的手机号码不是当前注册的号码</t>
@@ -151,7 +151,7 @@
     <t>签到时间未到，无法领取</t>
   </si>
   <si>
-    <t>提现团队人数不足</t>
+    <t>团队有效人数不足</t>
   </si>
   <si>
     <t>团队有效人数比例不足</t>
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -190,6 +190,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -197,21 +234,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -220,32 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -276,6 +274,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -283,6 +289,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -298,23 +313,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,25 +341,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,157 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +565,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,24 +596,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,11 +626,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,145 +640,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,13 +1142,13 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="73.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="73.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/base/x消息.xlsx
+++ b/base/x消息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12330" windowHeight="7710"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="消息_CodeCfg" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -133,16 +133,13 @@
     <t>输入的手机号码不是当前注册的号码</t>
   </si>
   <si>
-    <t>输入的身份证号码有误</t>
+    <t>实名三要素(身份证、姓名、手机号)不一致，认证失败</t>
   </si>
   <si>
     <t>已经实名验证，无需再实名验证</t>
   </si>
   <si>
     <t>该手机号码和身份证号码已经实名验证，无需再实名验证</t>
-  </si>
-  <si>
-    <t>实名验证有误，请检查输入后再尝试</t>
   </si>
   <si>
     <t>未进行实名验证，无法操作</t>
@@ -177,81 +174,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,56 +273,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,6 +529,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -546,6 +582,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,65 +624,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -640,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,13 +1139,13 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="73.775" customWidth="1"/>
+    <col min="2" max="2" width="73.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1481,7 +1478,7 @@
         <v>1208</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1489,7 +1486,7 @@
         <v>1209</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1497,7 +1494,7 @@
         <v>1210</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1505,7 +1502,7 @@
         <v>1211</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1513,7 +1510,7 @@
         <v>1212</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/base/x消息.xlsx
+++ b/base/x消息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -43,115 +43,121 @@
     <t>C</t>
   </si>
   <si>
-    <t>非法用户</t>
-  </si>
-  <si>
-    <t>输入有误</t>
-  </si>
-  <si>
-    <t>数字输入有误</t>
-  </si>
-  <si>
-    <t>货币不足</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>密码长度不够</t>
-  </si>
-  <si>
-    <t>短信验证码不对</t>
-  </si>
-  <si>
-    <t>物品不存在</t>
-  </si>
-  <si>
-    <t>配置出错</t>
-  </si>
-  <si>
-    <t>角色等级不足</t>
-  </si>
-  <si>
-    <t>角色不存在</t>
-  </si>
-  <si>
-    <t>可领取的金币不足</t>
-  </si>
-  <si>
-    <t>该鱼不能通过U购买</t>
-  </si>
-  <si>
-    <t>用U购买该鱼已达上限</t>
-  </si>
-  <si>
-    <t>海豚的领养名额不足</t>
-  </si>
-  <si>
-    <t>找不到角色</t>
-  </si>
-  <si>
-    <t>用户名重复</t>
-  </si>
-  <si>
-    <t>角色名重复</t>
-  </si>
-  <si>
-    <t>密码不能为空</t>
-  </si>
-  <si>
-    <t>前后密码不一致</t>
-  </si>
-  <si>
-    <t>手机号码不正确</t>
-  </si>
-  <si>
-    <t>邀请码不能为空</t>
-  </si>
-  <si>
-    <t>邀请码不存在</t>
-  </si>
-  <si>
-    <t>该手机号码已经被注册</t>
-  </si>
-  <si>
-    <t>你的账号已经激活，无需再激活</t>
-  </si>
-  <si>
-    <t>游戏未激活，不能实名验证</t>
-  </si>
-  <si>
-    <t>已经是最大的鱼了,无法合成下一等级</t>
-  </si>
-  <si>
-    <t>不能给自己赠送激活秘钥</t>
-  </si>
-  <si>
-    <t>输入的手机号码有误</t>
-  </si>
-  <si>
-    <t>输入的手机号码不是当前注册的号码</t>
-  </si>
-  <si>
-    <t>实名三要素(身份证、姓名、手机号)不一致，认证失败</t>
-  </si>
-  <si>
-    <t>已经实名验证，无需再实名验证</t>
-  </si>
-  <si>
-    <t>该手机号码和身份证号码已经实名验证，无需再实名验证</t>
-  </si>
-  <si>
-    <t>未进行实名验证，无法操作</t>
-  </si>
-  <si>
-    <t>签到时间未到，无法领取</t>
-  </si>
-  <si>
-    <t>团队有效人数不足</t>
-  </si>
-  <si>
-    <t>团队有效人数比例不足</t>
+    <t>CN_128</t>
+  </si>
+  <si>
+    <t>CN_129</t>
+  </si>
+  <si>
+    <t>CN_130</t>
+  </si>
+  <si>
+    <t>CN_131</t>
+  </si>
+  <si>
+    <t>CN_132</t>
+  </si>
+  <si>
+    <t>CN_133</t>
+  </si>
+  <si>
+    <t>CN_134</t>
+  </si>
+  <si>
+    <t>CN_135</t>
+  </si>
+  <si>
+    <t>CN_136</t>
+  </si>
+  <si>
+    <t>CN_137</t>
+  </si>
+  <si>
+    <t>CN_138</t>
+  </si>
+  <si>
+    <t>CN_139</t>
+  </si>
+  <si>
+    <t>CN_140</t>
+  </si>
+  <si>
+    <t>CN_141</t>
+  </si>
+  <si>
+    <t>CN_142</t>
+  </si>
+  <si>
+    <t>CN_143</t>
+  </si>
+  <si>
+    <t>CN_144</t>
+  </si>
+  <si>
+    <t>CN_145</t>
+  </si>
+  <si>
+    <t>CN_146</t>
+  </si>
+  <si>
+    <t>CN_147</t>
+  </si>
+  <si>
+    <t>CN_148</t>
+  </si>
+  <si>
+    <t>CN_149</t>
+  </si>
+  <si>
+    <t>CN_150</t>
+  </si>
+  <si>
+    <t>CN_151</t>
+  </si>
+  <si>
+    <t>CN_152</t>
+  </si>
+  <si>
+    <t>CN_153</t>
+  </si>
+  <si>
+    <t>CN_154</t>
+  </si>
+  <si>
+    <t>CN_155</t>
+  </si>
+  <si>
+    <t>CN_156</t>
+  </si>
+  <si>
+    <t>CN_157</t>
+  </si>
+  <si>
+    <t>CN_158</t>
+  </si>
+  <si>
+    <t>CN_159</t>
+  </si>
+  <si>
+    <t>CN_160</t>
+  </si>
+  <si>
+    <t>CN_161</t>
+  </si>
+  <si>
+    <t>CN_162</t>
+  </si>
+  <si>
+    <t>CN_163</t>
+  </si>
+  <si>
+    <t>CN_164</t>
+  </si>
+  <si>
+    <t>CN_165</t>
+  </si>
+  <si>
+    <t>CN_166</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1145,8 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1254,7 +1260,7 @@
         <v>1006</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1262,7 +1268,7 @@
         <v>1007</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1270,7 +1276,7 @@
         <v>1008</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1278,7 +1284,7 @@
         <v>1030</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1286,7 +1292,7 @@
         <v>1038</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1294,7 +1300,7 @@
         <v>1047</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1302,7 +1308,7 @@
         <v>1048</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1310,7 +1316,7 @@
         <v>1049</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1318,7 +1324,7 @@
         <v>1050</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1326,7 +1332,7 @@
         <v>1051</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1334,7 +1340,7 @@
         <v>1052</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1342,7 +1348,7 @@
         <v>1170</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1350,7 +1356,7 @@
         <v>1171</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1358,7 +1364,7 @@
         <v>1172</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1366,7 +1372,7 @@
         <v>1173</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1374,7 +1380,7 @@
         <v>1174</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1382,7 +1388,7 @@
         <v>1175</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1390,7 +1396,7 @@
         <v>1176</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1398,7 +1404,7 @@
         <v>1177</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1406,7 +1412,7 @@
         <v>1178</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1414,7 +1420,7 @@
         <v>1179</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1422,7 +1428,7 @@
         <v>1201</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1430,7 +1436,7 @@
         <v>1202</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1438,7 +1444,7 @@
         <v>1203</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1446,7 +1452,7 @@
         <v>1204</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1454,7 +1460,7 @@
         <v>1205</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1462,7 +1468,7 @@
         <v>1206</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1470,7 +1476,7 @@
         <v>1207</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1478,7 +1484,7 @@
         <v>1208</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1486,7 +1492,7 @@
         <v>1209</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1494,7 +1500,7 @@
         <v>1210</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1502,7 +1508,7 @@
         <v>1211</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1510,7 +1516,7 @@
         <v>1212</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
